--- a/Base de données/AU.xlsx
+++ b/Base de données/AU.xlsx
@@ -16,12 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>AU</t>
-  </si>
-  <si>
-    <t>occurrences_AU</t>
   </si>
 </sst>
 </file>
@@ -360,20 +357,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Base de données/AU.xlsx
+++ b/Base de données/AU.xlsx
@@ -2,16 +2,16 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -357,6 +357,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil1"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -377,6 +378,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -389,6 +391,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Feuil3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
